--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4421816666666667</v>
+        <v>0.04678466666666666</v>
       </c>
       <c r="H2">
-        <v>1.326545</v>
+        <v>0.140354</v>
       </c>
       <c r="I2">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762189</v>
       </c>
       <c r="J2">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N2">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O2">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P2">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q2">
-        <v>3.656474782974444</v>
+        <v>0.1696475172633333</v>
       </c>
       <c r="R2">
-        <v>32.90827304677</v>
+        <v>1.52682765537</v>
       </c>
       <c r="S2">
-        <v>0.04047868959430988</v>
+        <v>0.003186974660527948</v>
       </c>
       <c r="T2">
-        <v>0.04047868959430988</v>
+        <v>0.003186974660527948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4421816666666667</v>
+        <v>0.04678466666666666</v>
       </c>
       <c r="H3">
-        <v>1.326545</v>
+        <v>0.140354</v>
       </c>
       <c r="I3">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762189</v>
       </c>
       <c r="J3">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762188</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.363882</v>
       </c>
       <c r="O3">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P3">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q3">
-        <v>0.05363398307666667</v>
+        <v>0.005674699358666666</v>
       </c>
       <c r="R3">
-        <v>0.48270584769</v>
+        <v>0.05107229422799999</v>
       </c>
       <c r="S3">
-        <v>0.0005937503966322398</v>
+        <v>0.0001066041127740906</v>
       </c>
       <c r="T3">
-        <v>0.0005937503966322398</v>
+        <v>0.0001066041127740906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4421816666666667</v>
+        <v>0.04678466666666666</v>
       </c>
       <c r="H4">
-        <v>1.326545</v>
+        <v>0.140354</v>
       </c>
       <c r="I4">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762189</v>
       </c>
       <c r="J4">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.762117</v>
       </c>
       <c r="O4">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P4">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q4">
-        <v>1.733664166196111</v>
+        <v>0.1834289077131111</v>
       </c>
       <c r="R4">
-        <v>15.602977495765</v>
+        <v>1.650860169418</v>
       </c>
       <c r="S4">
-        <v>0.01919238004074071</v>
+        <v>0.003445869944460149</v>
       </c>
       <c r="T4">
-        <v>0.01919238004074071</v>
+        <v>0.003445869944460149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>19.109726</v>
       </c>
       <c r="I5">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810419</v>
       </c>
       <c r="J5">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810418</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N5">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O5">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P5">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q5">
-        <v>52.67384915592844</v>
+        <v>23.09814876300333</v>
       </c>
       <c r="R5">
-        <v>474.0646424033559</v>
+        <v>207.88333886703</v>
       </c>
       <c r="S5">
-        <v>0.5831213166430937</v>
+        <v>0.4339186095988152</v>
       </c>
       <c r="T5">
-        <v>0.5831213166430937</v>
+        <v>0.4339186095988152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>19.109726</v>
       </c>
       <c r="I6">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810419</v>
       </c>
       <c r="J6">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810418</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.363882</v>
       </c>
       <c r="O6">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P6">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q6">
         <v>0.7726317018146667</v>
@@ -818,10 +818,10 @@
         <v>6.953685316331999</v>
       </c>
       <c r="S6">
-        <v>0.008553352801475581</v>
+        <v>0.01451455167352531</v>
       </c>
       <c r="T6">
-        <v>0.008553352801475581</v>
+        <v>0.01451455167352531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>19.109726</v>
       </c>
       <c r="I7">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810419</v>
       </c>
       <c r="J7">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810418</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.762117</v>
       </c>
       <c r="O7">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P7">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q7">
         <v>24.97453700554911</v>
@@ -880,10 +880,10 @@
         <v>224.770833049942</v>
       </c>
       <c r="S7">
-        <v>0.276478463879042</v>
+        <v>0.4691681781087014</v>
       </c>
       <c r="T7">
-        <v>0.276478463879042</v>
+        <v>0.4691681781087013</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5252196666666666</v>
+        <v>0.5252196666666668</v>
       </c>
       <c r="H8">
         <v>1.575659</v>
       </c>
       <c r="I8">
-        <v>0.07158204664470585</v>
+        <v>0.07565921190119594</v>
       </c>
       <c r="J8">
-        <v>0.07158204664470584</v>
+        <v>0.07565921190119593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N8">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O8">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P8">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q8">
-        <v>4.34313001071711</v>
+        <v>1.904517415988334</v>
       </c>
       <c r="R8">
-        <v>39.08817009645399</v>
+        <v>17.140656743895</v>
       </c>
       <c r="S8">
-        <v>0.04808024723434237</v>
+        <v>0.03577799924927546</v>
       </c>
       <c r="T8">
-        <v>0.04808024723434236</v>
+        <v>0.03577799924927546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5252196666666666</v>
+        <v>0.5252196666666668</v>
       </c>
       <c r="H9">
         <v>1.575659</v>
       </c>
       <c r="I9">
-        <v>0.07158204664470585</v>
+        <v>0.07565921190119594</v>
       </c>
       <c r="J9">
-        <v>0.07158204664470584</v>
+        <v>0.07565921190119593</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.363882</v>
       </c>
       <c r="O9">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P9">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q9">
-        <v>0.06370599424866666</v>
+        <v>0.06370599424866667</v>
       </c>
       <c r="R9">
-        <v>0.5733539482379999</v>
+        <v>0.573353948238</v>
       </c>
       <c r="S9">
-        <v>0.0007052517300258629</v>
+        <v>0.001196771946146963</v>
       </c>
       <c r="T9">
-        <v>0.0007052517300258628</v>
+        <v>0.001196771946146963</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5252196666666666</v>
+        <v>0.5252196666666668</v>
       </c>
       <c r="H10">
         <v>1.575659</v>
       </c>
       <c r="I10">
-        <v>0.07158204664470585</v>
+        <v>0.07565921190119594</v>
       </c>
       <c r="J10">
-        <v>0.07158204664470584</v>
+        <v>0.07565921190119593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>11.762117</v>
       </c>
       <c r="O10">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P10">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q10">
-        <v>2.059231723344777</v>
+        <v>2.059231723344778</v>
       </c>
       <c r="R10">
         <v>18.533085510103</v>
       </c>
       <c r="S10">
-        <v>0.02279654768033762</v>
+        <v>0.03868444070577352</v>
       </c>
       <c r="T10">
-        <v>0.02279654768033761</v>
+        <v>0.03868444070577351</v>
       </c>
     </row>
   </sheetData>
